--- a/ru/downloads/data-excel/16.6.2.1a.xlsx
+++ b/ru/downloads/data-excel/16.6.2.1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +382,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal 17" xfId="3"/>
@@ -8141,7 +8146,9 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8215,6 +8222,9 @@
       <c r="H4" s="12">
         <v>2019</v>
       </c>
+      <c r="I4" s="20">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -8241,6 +8251,9 @@
       <c r="H5" s="6">
         <v>28.931149273244348</v>
       </c>
+      <c r="I5" s="6">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -8267,7 +8280,9 @@
       <c r="H6" s="14">
         <v>38.677928130166499</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="21">
+        <v>39.4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -8294,7 +8309,9 @@
       <c r="H7" s="14">
         <v>34.657678561285195</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="21">
+        <v>35.1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -8321,7 +8338,9 @@
       <c r="H8" s="14">
         <v>31.583100908489456</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="21">
+        <v>42.7</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -8348,7 +8367,9 @@
       <c r="H9" s="14">
         <v>47.289368826350582</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="21">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -8375,7 +8396,9 @@
       <c r="H10" s="14">
         <v>37.990783549288928</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="21">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -8402,7 +8425,9 @@
       <c r="H11" s="14">
         <v>29.962168760513435</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="21">
+        <v>36.700000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -8429,7 +8454,9 @@
       <c r="H12" s="14">
         <v>23.647167673376959</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="21">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -8456,7 +8483,9 @@
       <c r="H13" s="14">
         <v>16.505860491709218</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="21">
+        <v>-8</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="15" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -8483,7 +8512,9 @@
       <c r="H14" s="14">
         <v>31.381881643661952</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="22">
+        <v>38.799999999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">

--- a/ru/downloads/data-excel/16.6.2.1a.xlsx
+++ b/ru/downloads/data-excel/16.6.2.1a.xlsx
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -387,6 +387,14 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal 17" xfId="3"/>
@@ -8144,10 +8152,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8160,7 +8168,7 @@
     <col min="9" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -8174,7 +8182,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -8187,7 +8195,7 @@
       <c r="D2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8197,7 +8205,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8225,8 +8233,14 @@
       <c r="I4" s="20">
         <v>2020</v>
       </c>
+      <c r="J4" s="23">
+        <v>2021</v>
+      </c>
+      <c r="K4" s="23">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -8254,8 +8268,14 @@
       <c r="I5" s="6">
         <v>25.2</v>
       </c>
+      <c r="J5" s="24">
+        <v>34.075233127500141</v>
+      </c>
+      <c r="K5" s="24">
+        <v>35.305353068702679</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -8283,8 +8303,14 @@
       <c r="I6" s="21">
         <v>39.4</v>
       </c>
+      <c r="J6" s="25">
+        <v>44.487602536118636</v>
+      </c>
+      <c r="K6" s="25">
+        <v>49.31549563692068</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -8312,8 +8338,14 @@
       <c r="I7" s="21">
         <v>35.1</v>
       </c>
+      <c r="J7" s="25">
+        <v>40.668697007891453</v>
+      </c>
+      <c r="K7" s="25">
+        <v>45.444207273635158</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
@@ -8341,8 +8373,14 @@
       <c r="I8" s="21">
         <v>42.7</v>
       </c>
+      <c r="J8" s="25">
+        <v>50.797011639929529</v>
+      </c>
+      <c r="K8" s="25">
+        <v>46.810603774236895</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
@@ -8370,8 +8408,14 @@
       <c r="I9" s="21">
         <v>37.5</v>
       </c>
+      <c r="J9" s="25">
+        <v>46.848562449074493</v>
+      </c>
+      <c r="K9" s="25">
+        <v>45.450816127137941</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
@@ -8399,8 +8443,14 @@
       <c r="I10" s="21">
         <v>40.9</v>
       </c>
+      <c r="J10" s="25">
+        <v>44.458036086558309</v>
+      </c>
+      <c r="K10" s="25">
+        <v>50.474514452886076</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -8428,8 +8478,14 @@
       <c r="I11" s="21">
         <v>36.700000000000003</v>
       </c>
+      <c r="J11" s="25">
+        <v>40.532201616746903</v>
+      </c>
+      <c r="K11" s="25">
+        <v>40.14796186663478</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
@@ -8457,8 +8513,14 @@
       <c r="I12" s="21">
         <v>24.7</v>
       </c>
+      <c r="J12" s="25">
+        <v>33.353175884696697</v>
+      </c>
+      <c r="K12" s="25">
+        <v>29.735683954543184</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -8486,8 +8548,14 @@
       <c r="I13" s="21">
         <v>-8</v>
       </c>
+      <c r="J13" s="25">
+        <v>10.46405303463253</v>
+      </c>
+      <c r="K13" s="25">
+        <v>12.912087912087852</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="15" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
@@ -8515,8 +8583,14 @@
       <c r="I14" s="22">
         <v>38.799999999999997</v>
       </c>
+      <c r="J14" s="26">
+        <v>43.479082661290349</v>
+      </c>
+      <c r="K14" s="26">
+        <v>41.117034465658314</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>

--- a/ru/downloads/data-excel/16.6.2.1a.xlsx
+++ b/ru/downloads/data-excel/16.6.2.1a.xlsx
@@ -8152,11 +8152,9 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8168,7 +8166,7 @@
     <col min="9" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -8182,7 +8180,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -8195,7 +8193,7 @@
       <c r="D2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8205,7 +8203,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8239,8 +8237,11 @@
       <c r="K4" s="23">
         <v>2022</v>
       </c>
+      <c r="L4" s="23">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -8274,8 +8275,11 @@
       <c r="K5" s="24">
         <v>35.305353068702679</v>
       </c>
+      <c r="L5" s="24">
+        <v>33.991563806511245</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -8309,8 +8313,11 @@
       <c r="K6" s="25">
         <v>49.31549563692068</v>
       </c>
+      <c r="L6" s="25">
+        <v>43.352267904134116</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -8344,8 +8351,11 @@
       <c r="K7" s="25">
         <v>45.444207273635158</v>
       </c>
+      <c r="L7" s="25">
+        <v>46.016552065013244</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
@@ -8379,8 +8389,11 @@
       <c r="K8" s="25">
         <v>46.810603774236895</v>
       </c>
+      <c r="L8" s="25">
+        <v>57.950845675564537</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
@@ -8414,8 +8427,11 @@
       <c r="K9" s="25">
         <v>45.450816127137941</v>
       </c>
+      <c r="L9" s="25">
+        <v>46.481788079470263</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
@@ -8449,8 +8465,11 @@
       <c r="K10" s="25">
         <v>50.474514452886076</v>
       </c>
+      <c r="L10" s="25">
+        <v>45.080578284701389</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -8484,8 +8503,11 @@
       <c r="K11" s="25">
         <v>40.14796186663478</v>
       </c>
+      <c r="L11" s="25">
+        <v>39.506289942950417</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
@@ -8519,8 +8541,11 @@
       <c r="K12" s="25">
         <v>29.735683954543184</v>
       </c>
+      <c r="L12" s="25">
+        <v>26.964612178240138</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -8554,8 +8579,11 @@
       <c r="K13" s="25">
         <v>12.912087912087852</v>
       </c>
+      <c r="L13" s="25">
+        <v>15.46142526802614</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
@@ -8589,8 +8617,11 @@
       <c r="K14" s="26">
         <v>41.117034465658314</v>
       </c>
+      <c r="L14" s="26">
+        <v>33.453947368420813</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
